--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>SA02A</t>
   </si>
@@ -209,15 +209,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Males (4), Females (3), Males and Females (2), Neither (1), skip (-666), don’t know (-888), don’t want (-999) </t>
-  </si>
-  <si>
     <t xml:space="preserve">When you have sex, how often are you using a condom? </t>
   </si>
   <si>
-    <t>Never (4), Sometimes (3), Often (2), Always (0), skip (-666), don’t know (-888), don’t want (-999)</t>
-  </si>
-  <si>
     <r>
       <t>During the past year</t>
     </r>
@@ -341,13 +335,64 @@
       </rPr>
       <t xml:space="preserve">been physically or sexually hurt by an adult who lives in or frequently stays in your home? </t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Males (4), Females (3), Males and Females (2), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t>Neither (1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ArialMT"/>
+      </rPr>
+      <t xml:space="preserve">, skip (-666), don’t know (-888), don’t want (-999) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Never (4), Sometimes (3), Often (2), Always (0), skip (-666), don’t know (-888), don’t want (-999) </t>
+  </si>
+  <si>
+    <t>1 for anything greater than 0, 0 for none</t>
+  </si>
+  <si>
+    <t>1 for anything greater than 0, 0 for always</t>
+  </si>
+  <si>
+    <t>1 for D and F, 0 for A, B and c.  Use SC03 to produce SCFail.</t>
+  </si>
+  <si>
+    <t>1 for Very critical. 0 for levels 1 to 4.</t>
+  </si>
+  <si>
+    <t>1 for homosxual and bisexual. 0 for heterosexual.</t>
+  </si>
+  <si>
+    <t>1 for homosexual, bisexual and non-sexual. 0 for heterosexual.</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>recoding method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -371,13 +416,62 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ArialMT"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,10 +483,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,8 +496,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -677,24 +789,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="79.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="89.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +826,11 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -715,8 +840,11 @@
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D3" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -726,24 +854,30 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D4" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,19 +887,25 @@
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,8 +915,11 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D9" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -786,8 +929,11 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -797,115 +943,148 @@
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="D11" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="27" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>SA02A</t>
   </si>
@@ -367,9 +367,6 @@
     <t>1 for anything greater than 0, 0 for always</t>
   </si>
   <si>
-    <t>1 for D and F, 0 for A, B and c.  Use SC03 to produce SCFail.</t>
-  </si>
-  <si>
     <t>1 for Very critical. 0 for levels 1 to 4.</t>
   </si>
   <si>
@@ -386,6 +383,12 @@
   </si>
   <si>
     <t>recoding method</t>
+  </si>
+  <si>
+    <t>Please see in SC03</t>
+  </si>
+  <si>
+    <t>1 for D and F, 0 for A, B and C.  Then use SC03 to produce SCFail. (Only SCFail was used for LCA)</t>
   </si>
 </sst>
 </file>
@@ -791,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,13 +810,13 @@
         <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -858,7 +861,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -869,13 +872,16 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D6" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
@@ -902,7 +908,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -944,7 +950,7 @@
         <v>35</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
@@ -958,7 +964,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">

--- a/codebook.xlsx
+++ b/codebook.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>SA02A</t>
   </si>
@@ -337,27 +337,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Males (4), Females (3), Males and Females (2), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ArialMT"/>
-      </rPr>
-      <t>Neither (1)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ArialMT"/>
-      </rPr>
-      <t xml:space="preserve">, skip (-666), don’t know (-888), don’t want (-999) </t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Never (4), Sometimes (3), Often (2), Always (0), skip (-666), don’t know (-888), don’t want (-999) </t>
   </si>
   <si>
@@ -370,12 +349,6 @@
     <t>1 for Very critical. 0 for levels 1 to 4.</t>
   </si>
   <si>
-    <t>1 for homosxual and bisexual. 0 for heterosexual.</t>
-  </si>
-  <si>
-    <t>1 for homosexual, bisexual and non-sexual. 0 for heterosexual.</t>
-  </si>
-  <si>
     <t>Items</t>
   </si>
   <si>
@@ -389,13 +362,28 @@
   </si>
   <si>
     <t>1 for D and F, 0 for A, B and C.  Then use SC03 to produce SCFail. (Only SCFail was used for LCA)</t>
+  </si>
+  <si>
+    <t>1 for anything greater than 0, 0 for none or SA02 = 0.</t>
+  </si>
+  <si>
+    <t>1 for anything greater than 0, 0 for none or SA03 = 0.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Males (4), Females (3), Males and Females (2), Neither (1), skip (-666), don’t know (-888), don’t want (-999) </t>
+  </si>
+  <si>
+    <t>1 for homosxual and bisexual(referred to patient's gender). 0 for heterosexual.</t>
+  </si>
+  <si>
+    <t>1 for homosexual, bisexual and non-sexual(referred to patient's gender). 0 for heterosexual.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,11 +405,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="ArialMT"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
       <name val="ArialMT"/>
     </font>
     <font>
@@ -463,18 +446,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -488,8 +465,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -499,20 +476,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -794,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -805,18 +782,18 @@
     <col min="4" max="4" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>56</v>
+      <c r="B1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -829,8 +806,8 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>49</v>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -843,8 +820,8 @@
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
+      <c r="D3" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -857,30 +834,30 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
+      <c r="D4" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>58</v>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>57</v>
+      <c r="D6" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -893,22 +870,22 @@
       <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>49</v>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>51</v>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -921,8 +898,8 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>49</v>
+      <c r="D9" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -935,11 +912,11 @@
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D10" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,22 +926,22 @@
       <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -975,10 +952,10 @@
         <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -991,8 +968,8 @@
       <c r="C14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>49</v>
+      <c r="D14" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1005,8 +982,8 @@
       <c r="C15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>49</v>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1019,8 +996,8 @@
       <c r="C16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>49</v>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1033,8 +1010,8 @@
       <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>49</v>
+      <c r="D17" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1047,8 +1024,8 @@
       <c r="C18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
+      <c r="D18" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1061,8 +1038,8 @@
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>49</v>
+      <c r="D19" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1075,8 +1052,8 @@
       <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>49</v>
+      <c r="D20" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1089,8 +1066,8 @@
       <c r="C21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>49</v>
+      <c r="D21" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
